--- a/tests/xls_pipeline_test/input/mapping/mapping.xlsx
+++ b/tests/xls_pipeline_test/input/mapping/mapping.xlsx
@@ -19,7 +19,7 @@
     <t>Key</t>
   </si>
   <si>
-    <t>Classtype</t>
+    <t>Class type</t>
   </si>
   <si>
     <t>Annotation</t>
